--- a/Codemig/Pressure Drop/Data_All.xlsx
+++ b/Codemig/Pressure Drop/Data_All.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="20">
   <si>
     <t xml:space="preserve">Nada</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t xml:space="preserve">Reg6_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3Camadas_0K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3Camadas_12K</t>
   </si>
 </sst>
 </file>
@@ -156,7 +162,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -179,6 +185,10 @@
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -253,7 +263,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1350,11 +1360,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="67161364"/>
-        <c:axId val="66958150"/>
+        <c:axId val="53616216"/>
+        <c:axId val="57129778"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="67161364"/>
+        <c:axId val="53616216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1382,12 +1392,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66958150"/>
+        <c:crossAx val="57129778"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="66958150"/>
+        <c:axId val="57129778"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1424,7 +1434,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67161364"/>
+        <c:crossAx val="53616216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1483,9 +1493,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>512280</xdr:colOff>
+      <xdr:colOff>511920</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>129240</xdr:rowOff>
+      <xdr:rowOff>128880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1493,8 +1503,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8295840" y="5668200"/>
-        <a:ext cx="5759640" cy="3239280"/>
+        <a:off x="8297280" y="5668200"/>
+        <a:ext cx="5758920" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1512,10 +1522,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H171"/>
+  <dimension ref="A1:O201"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E51" activeCellId="0" sqref="E51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A149" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L162" activeCellId="0" sqref="L162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2032,6 +2042,10 @@
         <f aca="false">D17*10^5/F17/G17^2*500*10^-6/1000</f>
         <v>318.816629196152</v>
       </c>
+      <c r="O17" s="1" t="n">
+        <f aca="false">40/0.15</f>
+        <v>266.666666666667</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
@@ -3018,7 +3032,7 @@
       </c>
       <c r="H50" s="1" t="n">
         <f aca="false">D50*10^5/F50/G50^2*500*10^-6/1000</f>
-        <v>291.58737356904</v>
+        <v>291.587373569042</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3138,7 +3152,7 @@
       </c>
       <c r="H54" s="1" t="n">
         <f aca="false">D54*10^5/F54/G54^2*500*10^-6/1000</f>
-        <v>76.9219040477444</v>
+        <v>76.9219040477448</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3168,7 +3182,7 @@
       </c>
       <c r="H55" s="1" t="n">
         <f aca="false">D55*10^5/F55/G55^2*500*10^-6/1000</f>
-        <v>68.7915417095911</v>
+        <v>68.7915417095906</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3198,7 +3212,7 @@
       </c>
       <c r="H56" s="1" t="n">
         <f aca="false">D56*10^5/F56/G56^2*500*10^-6/1000</f>
-        <v>63.6144891273115</v>
+        <v>63.6144891273112</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3228,7 +3242,7 @@
       </c>
       <c r="H57" s="1" t="n">
         <f aca="false">D57*10^5/F57/G57^2*500*10^-6/1000</f>
-        <v>322.081053372901</v>
+        <v>322.0810533729</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3258,7 +3272,7 @@
       </c>
       <c r="H58" s="1" t="n">
         <f aca="false">D58*10^5/F58/G58^2*500*10^-6/1000</f>
-        <v>160.299128167724</v>
+        <v>160.299128167723</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3288,7 +3302,7 @@
       </c>
       <c r="H59" s="1" t="n">
         <f aca="false">D59*10^5/F59/G59^2*500*10^-6/1000</f>
-        <v>115.566114326504</v>
+        <v>115.566114326505</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3378,7 +3392,7 @@
       </c>
       <c r="H62" s="1" t="n">
         <f aca="false">D62*10^5/F62/G62^2*500*10^-6/1000</f>
-        <v>71.3096255485199</v>
+        <v>71.3096255485204</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3408,7 +3422,7 @@
       </c>
       <c r="H63" s="1" t="n">
         <f aca="false">D63*10^5/F63/G63^2*500*10^-6/1000</f>
-        <v>65.9367451274402</v>
+        <v>65.93674512744</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3438,7 +3452,7 @@
       </c>
       <c r="H64" s="1" t="n">
         <f aca="false">D64*10^5/F64/G64^2*500*10^-6/1000</f>
-        <v>291.345997321043</v>
+        <v>291.345997321044</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3498,7 +3512,7 @@
       </c>
       <c r="H66" s="1" t="n">
         <f aca="false">D66*10^5/F66/G66^2*500*10^-6/1000</f>
-        <v>107.788059127285</v>
+        <v>107.788059127284</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3558,7 +3572,7 @@
       </c>
       <c r="H68" s="1" t="n">
         <f aca="false">D68*10^5/F68/G68^2*500*10^-6/1000</f>
-        <v>75.1057752761006</v>
+        <v>75.1057752761009</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3588,7 +3602,7 @@
       </c>
       <c r="H69" s="1" t="n">
         <f aca="false">D69*10^5/F69/G69^2*500*10^-6/1000</f>
-        <v>67.8609277889709</v>
+        <v>67.8609277889707</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3618,7 +3632,7 @@
       </c>
       <c r="H70" s="1" t="n">
         <f aca="false">D70*10^5/F70/G70^2*500*10^-6/1000</f>
-        <v>62.1492151003825</v>
+        <v>62.1492151003824</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3738,7 +3752,7 @@
       </c>
       <c r="H74" s="1" t="n">
         <f aca="false">D74*10^5/F74/G74^2*500*10^-6/1000</f>
-        <v>90.0032283761558</v>
+        <v>90.0032283761559</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3798,7 +3812,7 @@
       </c>
       <c r="H76" s="1" t="n">
         <f aca="false">D76*10^5/F76/G76^2*500*10^-6/1000</f>
-        <v>70.2011143649919</v>
+        <v>70.2011143649915</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3828,7 +3842,7 @@
       </c>
       <c r="H77" s="1" t="n">
         <f aca="false">D77*10^5/F77/G77^2*500*10^-6/1000</f>
-        <v>64.8711814526689</v>
+        <v>64.8711814526692</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3948,7 +3962,7 @@
       </c>
       <c r="H81" s="1" t="n">
         <f aca="false">D81*10^5/F81/G81^2*500*10^-6/1000</f>
-        <v>65.2737764040816</v>
+        <v>65.2737764040815</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3978,7 +3992,7 @@
       </c>
       <c r="H82" s="1" t="n">
         <f aca="false">D82*10^5/F82/G82^2*500*10^-6/1000</f>
-        <v>57.5745423481482</v>
+        <v>57.5745423481486</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4008,7 +4022,7 @@
       </c>
       <c r="H83" s="1" t="n">
         <f aca="false">D83*10^5/F83/G83^2*500*10^-6/1000</f>
-        <v>53.2519682799894</v>
+        <v>53.2519682799895</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4038,7 +4052,7 @@
       </c>
       <c r="H84" s="1" t="n">
         <f aca="false">D84*10^5/F84/G84^2*500*10^-6/1000</f>
-        <v>48.8778171088249</v>
+        <v>48.8778171088251</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4128,7 +4142,7 @@
       </c>
       <c r="H87" s="1" t="n">
         <f aca="false">D87*10^5/F87/G87^2*500*10^-6/1000</f>
-        <v>84.7967194572299</v>
+        <v>84.7967194572298</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4188,7 +4202,7 @@
       </c>
       <c r="H89" s="1" t="n">
         <f aca="false">D89*10^5/F89/G89^2*500*10^-6/1000</f>
-        <v>59.4791696088324</v>
+        <v>59.4791696088323</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4218,7 +4232,7 @@
       </c>
       <c r="H90" s="1" t="n">
         <f aca="false">D90*10^5/F90/G90^2*500*10^-6/1000</f>
-        <v>55.9093261561509</v>
+        <v>55.909326156151</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4248,7 +4262,7 @@
       </c>
       <c r="H91" s="1" t="n">
         <f aca="false">D91*10^5/F91/G91^2*500*10^-6/1000</f>
-        <v>50.7532085089776</v>
+        <v>50.753208508978</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4278,7 +4292,7 @@
       </c>
       <c r="H92" s="1" t="n">
         <f aca="false">D92*10^5/F92/G92^2*500*10^-6/1000</f>
-        <v>519.703255131501</v>
+        <v>519.703255131502</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4398,7 +4412,7 @@
       </c>
       <c r="H96" s="1" t="n">
         <f aca="false">D96*10^5/F96/G96^2*500*10^-6/1000</f>
-        <v>126.076945615318</v>
+        <v>126.076945615317</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4458,7 +4472,7 @@
       </c>
       <c r="H98" s="1" t="n">
         <f aca="false">D98*10^5/F98/G98^2*500*10^-6/1000</f>
-        <v>543.660453677613</v>
+        <v>543.660453677612</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4608,7 +4622,7 @@
       </c>
       <c r="H103" s="1" t="n">
         <f aca="false">D103*10^5/F103/G103^2*500*10^-6/1000</f>
-        <v>114.123905352203</v>
+        <v>114.123905352204</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4638,7 +4652,7 @@
       </c>
       <c r="H104" s="1" t="n">
         <f aca="false">D104*10^5/F104/G104^2*500*10^-6/1000</f>
-        <v>544.562437817307</v>
+        <v>544.562437817308</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4668,7 +4682,7 @@
       </c>
       <c r="H105" s="1" t="n">
         <f aca="false">D105*10^5/F105/G105^2*500*10^-6/1000</f>
-        <v>257.373756371131</v>
+        <v>257.37375637113</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4818,7 +4832,7 @@
       </c>
       <c r="H110" s="1" t="n">
         <f aca="false">D110*10^5/F110/G110^2*500*10^-6/1000</f>
-        <v>551.219966472981</v>
+        <v>551.219966472984</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4968,7 +4982,7 @@
       </c>
       <c r="H115" s="1" t="n">
         <f aca="false">D115*10^5/F115/G115^2*500*10^-6/1000</f>
-        <v>118.813258340692</v>
+        <v>118.813258340693</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4998,7 +5012,7 @@
       </c>
       <c r="H116" s="1" t="n">
         <f aca="false">D116*10^5/F116/G116^2*500*10^-6/1000</f>
-        <v>232.611870276595</v>
+        <v>232.611870276594</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5118,7 +5132,7 @@
       </c>
       <c r="H120" s="1" t="n">
         <f aca="false">D120*10^5/F120/G120^2*500*10^-6/1000</f>
-        <v>61.1291335486946</v>
+        <v>61.1291335486952</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5238,7 +5252,7 @@
       </c>
       <c r="H124" s="1" t="n">
         <f aca="false">D124*10^5/F124/G124^2*500*10^-6/1000</f>
-        <v>128.001669127894</v>
+        <v>128.001669127893</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5268,7 +5282,7 @@
       </c>
       <c r="H125" s="1" t="n">
         <f aca="false">D125*10^5/F125/G125^2*500*10^-6/1000</f>
-        <v>90.7922591452424</v>
+        <v>90.7922591452423</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5328,7 +5342,7 @@
       </c>
       <c r="H127" s="1" t="n">
         <f aca="false">D127*10^5/F127/G127^2*500*10^-6/1000</f>
-        <v>62.9862571534801</v>
+        <v>62.98625715348</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5388,7 +5402,7 @@
       </c>
       <c r="H129" s="1" t="n">
         <f aca="false">D129*10^5/F129/G129^2*500*10^-6/1000</f>
-        <v>53.0000092898714</v>
+        <v>53.0000092898717</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5418,7 +5432,7 @@
       </c>
       <c r="H130" s="1" t="n">
         <f aca="false">D130*10^5/F130/G130^2*500*10^-6/1000</f>
-        <v>307.203161001088</v>
+        <v>307.203161001089</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5478,7 +5492,7 @@
       </c>
       <c r="H132" s="1" t="n">
         <f aca="false">D132*10^5/F132/G132^2*500*10^-6/1000</f>
-        <v>107.671197766888</v>
+        <v>107.671197766887</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5508,7 +5522,7 @@
       </c>
       <c r="H133" s="1" t="n">
         <f aca="false">D133*10^5/F133/G133^2*500*10^-6/1000</f>
-        <v>84.9093532780564</v>
+        <v>84.9093532780565</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5538,7 +5552,7 @@
       </c>
       <c r="H134" s="1" t="n">
         <f aca="false">D134*10^5/F134/G134^2*500*10^-6/1000</f>
-        <v>74.804377838629</v>
+        <v>74.8043778386283</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5568,7 +5582,7 @@
       </c>
       <c r="H135" s="1" t="n">
         <f aca="false">D135*10^5/F135/G135^2*500*10^-6/1000</f>
-        <v>67.8055960620589</v>
+        <v>67.8055960620591</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5598,7 +5612,7 @@
       </c>
       <c r="H136" s="1" t="n">
         <f aca="false">D136*10^5/F136/G136^2*500*10^-6/1000</f>
-        <v>61.9595719241027</v>
+        <v>61.9595719241029</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5628,7 +5642,7 @@
       </c>
       <c r="H137" s="1" t="n">
         <f aca="false">D137*10^5/F137/G137^2*500*10^-6/1000</f>
-        <v>348.858590139927</v>
+        <v>348.858590139926</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5718,7 +5732,7 @@
       </c>
       <c r="H140" s="1" t="n">
         <f aca="false">D140*10^5/F140/G140^2*500*10^-6/1000</f>
-        <v>88.504650222182</v>
+        <v>88.5046502221821</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5748,7 +5762,7 @@
       </c>
       <c r="H141" s="1" t="n">
         <f aca="false">D141*10^5/F141/G141^2*500*10^-6/1000</f>
-        <v>76.5729836852498</v>
+        <v>76.5729836852497</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5778,7 +5792,7 @@
       </c>
       <c r="H142" s="1" t="n">
         <f aca="false">D142*10^5/F142/G142^2*500*10^-6/1000</f>
-        <v>69.0212362152191</v>
+        <v>69.0212362152192</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5808,7 +5822,7 @@
       </c>
       <c r="H143" s="1" t="n">
         <f aca="false">D143*10^5/F143/G143^2*500*10^-6/1000</f>
-        <v>63.3824191673881</v>
+        <v>63.3824191673877</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5838,7 +5852,7 @@
       </c>
       <c r="H144" s="1" t="n">
         <f aca="false">D144*10^5/F144/G144^2*500*10^-6/1000</f>
-        <v>283.192256020673</v>
+        <v>283.192256020674</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5958,7 +5972,7 @@
       </c>
       <c r="H148" s="1" t="n">
         <f aca="false">D148*10^5/F148/G148^2*500*10^-6/1000</f>
-        <v>73.7288857418122</v>
+        <v>73.7288857418123</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5988,7 +6002,7 @@
       </c>
       <c r="H149" s="1" t="n">
         <f aca="false">D149*10^5/F149/G149^2*500*10^-6/1000</f>
-        <v>66.7931837443948</v>
+        <v>66.7931837443945</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6018,7 +6032,7 @@
       </c>
       <c r="H150" s="1" t="n">
         <f aca="false">D150*10^5/F150/G150^2*500*10^-6/1000</f>
-        <v>62.6700437710167</v>
+        <v>62.6700437710164</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6138,7 +6152,7 @@
       </c>
       <c r="H154" s="1" t="n">
         <f aca="false">D154*10^5/F154/G154^2*500*10^-6/1000</f>
-        <v>87.2098137884785</v>
+        <v>87.2098137884786</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6198,7 +6212,7 @@
       </c>
       <c r="H156" s="1" t="n">
         <f aca="false">D156*10^5/F156/G156^2*500*10^-6/1000</f>
-        <v>68.4072613753827</v>
+        <v>68.4072613753823</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6228,7 +6242,7 @@
       </c>
       <c r="H157" s="1" t="n">
         <f aca="false">D157*10^5/F157/G157^2*500*10^-6/1000</f>
-        <v>63.0971050484998</v>
+        <v>63.0971050485</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6378,7 +6392,7 @@
       </c>
       <c r="H162" s="1" t="n">
         <f aca="false">D162*10^5/F162/G162^2*500*10^-6/1000</f>
-        <v>84.4571382026357</v>
+        <v>84.4571382026349</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6408,7 +6422,7 @@
       </c>
       <c r="H163" s="1" t="n">
         <f aca="false">D163*10^5/F163/G163^2*500*10^-6/1000</f>
-        <v>76.5227599167995</v>
+        <v>76.5227599167997</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6468,7 +6482,7 @@
       </c>
       <c r="H165" s="1" t="n">
         <f aca="false">D165*10^5/F165/G165^2*500*10^-6/1000</f>
-        <v>388.276409225631</v>
+        <v>388.276409225632</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6558,7 +6572,7 @@
       </c>
       <c r="H168" s="1" t="n">
         <f aca="false">D168*10^5/F168/G168^2*500*10^-6/1000</f>
-        <v>100.240061104535</v>
+        <v>100.240061104534</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6588,7 +6602,7 @@
       </c>
       <c r="H169" s="1" t="n">
         <f aca="false">D169*10^5/F169/G169^2*500*10^-6/1000</f>
-        <v>86.6012059977135</v>
+        <v>86.6012059977136</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6618,7 +6632,7 @@
       </c>
       <c r="H170" s="1" t="n">
         <f aca="false">D170*10^5/F170/G170^2*500*10^-6/1000</f>
-        <v>77.8127422400619</v>
+        <v>77.8127422400614</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6648,7 +6662,905 @@
       </c>
       <c r="H171" s="1" t="n">
         <f aca="false">D171*10^5/F171/G171^2*500*10^-6/1000</f>
-        <v>70.9835932212551</v>
+        <v>70.9835932212546</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C172" s="6" t="n">
+        <v>10.291</v>
+      </c>
+      <c r="D172" s="6" t="n">
+        <v>0.0510000000000002</v>
+      </c>
+      <c r="E172" s="1" t="n">
+        <v>0.0243</v>
+      </c>
+      <c r="F172" s="1" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G172" s="1" t="n">
+        <f aca="false">C172/1000/3600/(PI()*(E172^2)/4)</f>
+        <v>0.0061638583374587</v>
+      </c>
+      <c r="H172" s="1" t="n">
+        <f aca="false">D172*10^5/F172/G172^2*500*10^-6/1000</f>
+        <v>1342.34725289221</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C173" s="6" t="n">
+        <v>20.273</v>
+      </c>
+      <c r="D173" s="6" t="n">
+        <v>0.0690000000000008</v>
+      </c>
+      <c r="E173" s="1" t="n">
+        <f aca="false">E172</f>
+        <v>0.0243</v>
+      </c>
+      <c r="F173" s="1" t="n">
+        <f aca="false">F172</f>
+        <v>0.05</v>
+      </c>
+      <c r="G173" s="1" t="n">
+        <f aca="false">C173/1000/3600/(PI()*(E173^2)/4)</f>
+        <v>0.0121426392066175</v>
+      </c>
+      <c r="H173" s="1" t="n">
+        <f aca="false">D173*10^5/F173/G173^2*500*10^-6/1000</f>
+        <v>467.975275508563</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C174" s="6" t="n">
+        <v>30.217</v>
+      </c>
+      <c r="D174" s="6" t="n">
+        <v>0.0899999999999999</v>
+      </c>
+      <c r="E174" s="1" t="n">
+        <f aca="false">E173</f>
+        <v>0.0243</v>
+      </c>
+      <c r="F174" s="1" t="n">
+        <f aca="false">F173</f>
+        <v>0.05</v>
+      </c>
+      <c r="G174" s="1" t="n">
+        <f aca="false">C174/1000/3600/(PI()*(E174^2)/4)</f>
+        <v>0.0180986597398688</v>
+      </c>
+      <c r="H174" s="1" t="n">
+        <f aca="false">D174*10^5/F174/G174^2*500*10^-6/1000</f>
+        <v>274.757577712392</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C175" s="6" t="n">
+        <v>40.052</v>
+      </c>
+      <c r="D175" s="6" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="E175" s="1" t="n">
+        <f aca="false">E174</f>
+        <v>0.0243</v>
+      </c>
+      <c r="F175" s="1" t="n">
+        <f aca="false">F174</f>
+        <v>0.05</v>
+      </c>
+      <c r="G175" s="1" t="n">
+        <f aca="false">C175/1000/3600/(PI()*(E175^2)/4)</f>
+        <v>0.0239893940464382</v>
+      </c>
+      <c r="H175" s="1" t="n">
+        <f aca="false">D175*10^5/F175/G175^2*500*10^-6/1000</f>
+        <v>194.616414158982</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C176" s="6" t="n">
+        <v>50.65</v>
+      </c>
+      <c r="D176" s="6" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="E176" s="1" t="n">
+        <f aca="false">E175</f>
+        <v>0.0243</v>
+      </c>
+      <c r="F176" s="1" t="n">
+        <f aca="false">F175</f>
+        <v>0.05</v>
+      </c>
+      <c r="G176" s="1" t="n">
+        <f aca="false">C176/1000/3600/(PI()*(E176^2)/4)</f>
+        <v>0.0303371319397807</v>
+      </c>
+      <c r="H176" s="1" t="n">
+        <f aca="false">D176*10^5/F176/G176^2*500*10^-6/1000</f>
+        <v>151.030882312298</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C177" s="6" t="n">
+        <v>60.991</v>
+      </c>
+      <c r="D177" s="6" t="n">
+        <v>0.172000000000001</v>
+      </c>
+      <c r="E177" s="1" t="n">
+        <f aca="false">E176</f>
+        <v>0.0243</v>
+      </c>
+      <c r="F177" s="1" t="n">
+        <f aca="false">F176</f>
+        <v>0.05</v>
+      </c>
+      <c r="G177" s="1" t="n">
+        <f aca="false">C177/1000/3600/(PI()*(E177^2)/4)</f>
+        <v>0.0365309380876439</v>
+      </c>
+      <c r="H177" s="1" t="n">
+        <f aca="false">D177*10^5/F177/G177^2*500*10^-6/1000</f>
+        <v>128.886312197283</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C178" s="6" t="n">
+        <v>70.58</v>
+      </c>
+      <c r="D178" s="6" t="n">
+        <v>0.207000000000001</v>
+      </c>
+      <c r="E178" s="1" t="n">
+        <f aca="false">E177</f>
+        <v>0.0243</v>
+      </c>
+      <c r="F178" s="1" t="n">
+        <f aca="false">F177</f>
+        <v>0.05</v>
+      </c>
+      <c r="G178" s="1" t="n">
+        <f aca="false">C178/1000/3600/(PI()*(E178^2)/4)</f>
+        <v>0.0422743291670231</v>
+      </c>
+      <c r="H178" s="1" t="n">
+        <f aca="false">D178*10^5/F178/G178^2*500*10^-6/1000</f>
+        <v>115.828890425022</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179" s="6" t="n">
+        <v>80.904</v>
+      </c>
+      <c r="D179" s="6" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="E179" s="1" t="n">
+        <f aca="false">E178</f>
+        <v>0.0243</v>
+      </c>
+      <c r="F179" s="1" t="n">
+        <f aca="false">F178</f>
+        <v>0.05</v>
+      </c>
+      <c r="G179" s="1" t="n">
+        <f aca="false">C179/1000/3600/(PI()*(E179^2)/4)</f>
+        <v>0.0484579530593488</v>
+      </c>
+      <c r="H179" s="1" t="n">
+        <f aca="false">D179*10^5/F179/G179^2*500*10^-6/1000</f>
+        <v>104.336425637615</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C180" s="6" t="n">
+        <v>91.963</v>
+      </c>
+      <c r="D180" s="6" t="n">
+        <v>0.289000000000001</v>
+      </c>
+      <c r="E180" s="1" t="n">
+        <f aca="false">E179</f>
+        <v>0.0243</v>
+      </c>
+      <c r="F180" s="1" t="n">
+        <f aca="false">F179</f>
+        <v>0.05</v>
+      </c>
+      <c r="G180" s="1" t="n">
+        <f aca="false">C180/1000/3600/(PI()*(E180^2)/4)</f>
+        <v>0.055081809764621</v>
+      </c>
+      <c r="H180" s="1" t="n">
+        <f aca="false">D180*10^5/F180/G180^2*500*10^-6/1000</f>
+        <v>95.2536093202338</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C181" s="6" t="n">
+        <v>10.321</v>
+      </c>
+      <c r="D181" s="6" t="n">
+        <v>0.0140000000000002</v>
+      </c>
+      <c r="E181" s="1" t="n">
+        <f aca="false">E180</f>
+        <v>0.0243</v>
+      </c>
+      <c r="F181" s="1" t="n">
+        <f aca="false">F180</f>
+        <v>0.05</v>
+      </c>
+      <c r="G181" s="1" t="n">
+        <f aca="false">C181/1000/3600/(PI()*(E181^2)/4)</f>
+        <v>0.00618182702370141</v>
+      </c>
+      <c r="H181" s="1" t="n">
+        <f aca="false">D181*10^5/F181/G181^2*500*10^-6/1000</f>
+        <v>366.348432988387</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C182" s="6" t="n">
+        <v>20.053</v>
+      </c>
+      <c r="D182" s="6" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="E182" s="1" t="n">
+        <f aca="false">E181</f>
+        <v>0.0243</v>
+      </c>
+      <c r="F182" s="1" t="n">
+        <f aca="false">F181</f>
+        <v>0.05</v>
+      </c>
+      <c r="G182" s="1" t="n">
+        <f aca="false">C182/1000/3600/(PI()*(E182^2)/4)</f>
+        <v>0.0120108688408376</v>
+      </c>
+      <c r="H182" s="1" t="n">
+        <f aca="false">D182*10^5/F182/G182^2*500*10^-6/1000</f>
+        <v>221.820218807872</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C183" s="6" t="n">
+        <v>30.551</v>
+      </c>
+      <c r="D183" s="6" t="n">
+        <v>0.0540000000000003</v>
+      </c>
+      <c r="E183" s="1" t="n">
+        <f aca="false">E182</f>
+        <v>0.0243</v>
+      </c>
+      <c r="F183" s="1" t="n">
+        <f aca="false">F182</f>
+        <v>0.05</v>
+      </c>
+      <c r="G183" s="1" t="n">
+        <f aca="false">C183/1000/3600/(PI()*(E183^2)/4)</f>
+        <v>0.018298711113371</v>
+      </c>
+      <c r="H183" s="1" t="n">
+        <f aca="false">D183*10^5/F183/G183^2*500*10^-6/1000</f>
+        <v>161.269692578818</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C184" s="6" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="D184" s="6" t="n">
+        <v>0.0789999999999997</v>
+      </c>
+      <c r="E184" s="1" t="n">
+        <f aca="false">E183</f>
+        <v>0.0243</v>
+      </c>
+      <c r="F184" s="1" t="n">
+        <f aca="false">F183</f>
+        <v>0.05</v>
+      </c>
+      <c r="G184" s="1" t="n">
+        <f aca="false">C184/1000/3600/(PI()*(E184^2)/4)</f>
+        <v>0.0241379351860447</v>
+      </c>
+      <c r="H184" s="1" t="n">
+        <f aca="false">D184*10^5/F184/G184^2*500*10^-6/1000</f>
+        <v>135.589749277312</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C185" s="6" t="n">
+        <v>50.707</v>
+      </c>
+      <c r="D185" s="6" t="n">
+        <v>0.109</v>
+      </c>
+      <c r="E185" s="1" t="n">
+        <f aca="false">E184</f>
+        <v>0.0243</v>
+      </c>
+      <c r="F185" s="1" t="n">
+        <f aca="false">F184</f>
+        <v>0.05</v>
+      </c>
+      <c r="G185" s="1" t="n">
+        <f aca="false">C185/1000/3600/(PI()*(E185^2)/4)</f>
+        <v>0.0303712724436419</v>
+      </c>
+      <c r="H185" s="1" t="n">
+        <f aca="false">D185*10^5/F185/G185^2*500*10^-6/1000</f>
+        <v>118.168173473359</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C186" s="6" t="n">
+        <v>61.033</v>
+      </c>
+      <c r="D186" s="6" t="n">
+        <v>0.146000000000001</v>
+      </c>
+      <c r="E186" s="1" t="n">
+        <f aca="false">E185</f>
+        <v>0.0243</v>
+      </c>
+      <c r="F186" s="1" t="n">
+        <f aca="false">F185</f>
+        <v>0.05</v>
+      </c>
+      <c r="G186" s="1" t="n">
+        <f aca="false">C186/1000/3600/(PI()*(E186^2)/4)</f>
+        <v>0.0365560942483837</v>
+      </c>
+      <c r="H186" s="1" t="n">
+        <f aca="false">D186*10^5/F186/G186^2*500*10^-6/1000</f>
+        <v>109.252976831862</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C187" s="6" t="n">
+        <v>70.867</v>
+      </c>
+      <c r="D187" s="6" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="E187" s="1" t="n">
+        <f aca="false">E186</f>
+        <v>0.0243</v>
+      </c>
+      <c r="F187" s="1" t="n">
+        <f aca="false">F186</f>
+        <v>0.05</v>
+      </c>
+      <c r="G187" s="1" t="n">
+        <f aca="false">C187/1000/3600/(PI()*(E187^2)/4)</f>
+        <v>0.0424462295987451</v>
+      </c>
+      <c r="H187" s="1" t="n">
+        <f aca="false">D187*10^5/F187/G187^2*500*10^-6/1000</f>
+        <v>103.236840889338</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C188" s="6" t="n">
+        <v>81.285</v>
+      </c>
+      <c r="D188" s="6" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="E188" s="1" t="n">
+        <f aca="false">E187</f>
+        <v>0.0243</v>
+      </c>
+      <c r="F188" s="1" t="n">
+        <f aca="false">F187</f>
+        <v>0.05</v>
+      </c>
+      <c r="G188" s="1" t="n">
+        <f aca="false">C188/1000/3600/(PI()*(E188^2)/4)</f>
+        <v>0.0486861553746313</v>
+      </c>
+      <c r="H188" s="1" t="n">
+        <f aca="false">D188*10^5/F188/G188^2*500*10^-6/1000</f>
+        <v>97.0324226074237</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C189" s="6" t="n">
+        <v>92.255</v>
+      </c>
+      <c r="D189" s="6" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E189" s="1" t="n">
+        <f aca="false">E188</f>
+        <v>0.0243</v>
+      </c>
+      <c r="F189" s="1" t="n">
+        <f aca="false">F188</f>
+        <v>0.05</v>
+      </c>
+      <c r="G189" s="1" t="n">
+        <f aca="false">C189/1000/3600/(PI()*(E189^2)/4)</f>
+        <v>0.0552567049773834</v>
+      </c>
+      <c r="H189" s="1" t="n">
+        <f aca="false">D189*10^5/F189/G189^2*500*10^-6/1000</f>
+        <v>91.7039544374175</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C190" s="6" t="n">
+        <v>10.33</v>
+      </c>
+      <c r="D190" s="6" t="n">
+        <v>0.0510000000000002</v>
+      </c>
+      <c r="E190" s="1" t="n">
+        <f aca="false">E189</f>
+        <v>0.0243</v>
+      </c>
+      <c r="F190" s="1" t="n">
+        <f aca="false">F189</f>
+        <v>0.05</v>
+      </c>
+      <c r="G190" s="1" t="n">
+        <f aca="false">C190/1000/3600/(PI()*(E190^2)/4)</f>
+        <v>0.00618721762957423</v>
+      </c>
+      <c r="H190" s="1" t="n">
+        <f aca="false">D190*10^5/F190/G190^2*500*10^-6/1000</f>
+        <v>1332.23056004491</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C191" s="6" t="n">
+        <v>20.583</v>
+      </c>
+      <c r="D191" s="6" t="n">
+        <v>0.0700000000000003</v>
+      </c>
+      <c r="E191" s="1" t="n">
+        <f aca="false">E190</f>
+        <v>0.0243</v>
+      </c>
+      <c r="F191" s="1" t="n">
+        <f aca="false">F190</f>
+        <v>0.05</v>
+      </c>
+      <c r="G191" s="1" t="n">
+        <f aca="false">C191/1000/3600/(PI()*(E191^2)/4)</f>
+        <v>0.0123283156311255</v>
+      </c>
+      <c r="H191" s="1" t="n">
+        <f aca="false">D191*10^5/F191/G191^2*500*10^-6/1000</f>
+        <v>460.564596280523</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C192" s="6" t="n">
+        <v>30.794</v>
+      </c>
+      <c r="D192" s="6" t="n">
+        <v>0.0900000000000007</v>
+      </c>
+      <c r="E192" s="1" t="n">
+        <f aca="false">E191</f>
+        <v>0.0243</v>
+      </c>
+      <c r="F192" s="1" t="n">
+        <f aca="false">F191</f>
+        <v>0.05</v>
+      </c>
+      <c r="G192" s="1" t="n">
+        <f aca="false">C192/1000/3600/(PI()*(E192^2)/4)</f>
+        <v>0.018444257471937</v>
+      </c>
+      <c r="H192" s="1" t="n">
+        <f aca="false">D192*10^5/F192/G192^2*500*10^-6/1000</f>
+        <v>264.557548288416</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C193" s="6" t="n">
+        <v>40.541</v>
+      </c>
+      <c r="D193" s="6" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="E193" s="1" t="n">
+        <f aca="false">E192</f>
+        <v>0.0243</v>
+      </c>
+      <c r="F193" s="1" t="n">
+        <f aca="false">F192</f>
+        <v>0.05</v>
+      </c>
+      <c r="G193" s="1" t="n">
+        <f aca="false">C193/1000/3600/(PI()*(E193^2)/4)</f>
+        <v>0.0242822836321945</v>
+      </c>
+      <c r="H193" s="1" t="n">
+        <f aca="false">D193*10^5/F193/G193^2*500*10^-6/1000</f>
+        <v>193.341817156036</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C194" s="6" t="n">
+        <v>50.583</v>
+      </c>
+      <c r="D194" s="6" t="n">
+        <v>0.143000000000001</v>
+      </c>
+      <c r="E194" s="1" t="n">
+        <f aca="false">E193</f>
+        <v>0.0243</v>
+      </c>
+      <c r="F194" s="1" t="n">
+        <f aca="false">F193</f>
+        <v>0.05</v>
+      </c>
+      <c r="G194" s="1" t="n">
+        <f aca="false">C194/1000/3600/(PI()*(E194^2)/4)</f>
+        <v>0.0302970018738386</v>
+      </c>
+      <c r="H194" s="1" t="n">
+        <f aca="false">D194*10^5/F194/G194^2*500*10^-6/1000</f>
+        <v>155.788978580965</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C195" s="6" t="n">
+        <v>61.315</v>
+      </c>
+      <c r="D195" s="6" t="n">
+        <v>0.177000000000001</v>
+      </c>
+      <c r="E195" s="1" t="n">
+        <f aca="false">E194</f>
+        <v>0.0243</v>
+      </c>
+      <c r="F195" s="1" t="n">
+        <f aca="false">F194</f>
+        <v>0.05</v>
+      </c>
+      <c r="G195" s="1" t="n">
+        <f aca="false">C195/1000/3600/(PI()*(E195^2)/4)</f>
+        <v>0.0367249998990652</v>
+      </c>
+      <c r="H195" s="1" t="n">
+        <f aca="false">D195*10^5/F195/G195^2*500*10^-6/1000</f>
+        <v>131.234995237028</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C196" s="6" t="n">
+        <v>10.297</v>
+      </c>
+      <c r="D196" s="6" t="n">
+        <v>0.0140000000000002</v>
+      </c>
+      <c r="E196" s="1" t="n">
+        <f aca="false">E195</f>
+        <v>0.0243</v>
+      </c>
+      <c r="F196" s="1" t="n">
+        <f aca="false">F195</f>
+        <v>0.05</v>
+      </c>
+      <c r="G196" s="1" t="n">
+        <f aca="false">C196/1000/3600/(PI()*(E196^2)/4)</f>
+        <v>0.00616745207470724</v>
+      </c>
+      <c r="H196" s="1" t="n">
+        <f aca="false">D196*10^5/F196/G196^2*500*10^-6/1000</f>
+        <v>368.05817541922</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C197" s="6" t="n">
+        <v>20.637</v>
+      </c>
+      <c r="D197" s="6" t="n">
+        <v>0.0339999999999998</v>
+      </c>
+      <c r="E197" s="1" t="n">
+        <f aca="false">E196</f>
+        <v>0.0243</v>
+      </c>
+      <c r="F197" s="1" t="n">
+        <f aca="false">F196</f>
+        <v>0.05</v>
+      </c>
+      <c r="G197" s="1" t="n">
+        <f aca="false">C197/1000/3600/(PI()*(E197^2)/4)</f>
+        <v>0.0123606592663624</v>
+      </c>
+      <c r="H197" s="1" t="n">
+        <f aca="false">D197*10^5/F197/G197^2*500*10^-6/1000</f>
+        <v>222.533627491358</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C198" s="6" t="n">
+        <v>31.04</v>
+      </c>
+      <c r="D198" s="6" t="n">
+        <v>0.0590000000000002</v>
+      </c>
+      <c r="E198" s="1" t="n">
+        <f aca="false">E197</f>
+        <v>0.0243</v>
+      </c>
+      <c r="F198" s="1" t="n">
+        <f aca="false">F197</f>
+        <v>0.05</v>
+      </c>
+      <c r="G198" s="1" t="n">
+        <f aca="false">C198/1000/3600/(PI()*(E198^2)/4)</f>
+        <v>0.0185916006991272</v>
+      </c>
+      <c r="H198" s="1" t="n">
+        <f aca="false">D198*10^5/F198/G198^2*500*10^-6/1000</f>
+        <v>170.694074467826</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C199" s="6" t="n">
+        <v>40.684</v>
+      </c>
+      <c r="D199" s="6" t="n">
+        <v>0.0870000000000006</v>
+      </c>
+      <c r="E199" s="1" t="n">
+        <f aca="false">E198</f>
+        <v>0.0243</v>
+      </c>
+      <c r="F199" s="1" t="n">
+        <f aca="false">F198</f>
+        <v>0.05</v>
+      </c>
+      <c r="G199" s="1" t="n">
+        <f aca="false">C199/1000/3600/(PI()*(E199^2)/4)</f>
+        <v>0.0243679343699514</v>
+      </c>
+      <c r="H199" s="1" t="n">
+        <f aca="false">D199*10^5/F199/G199^2*500*10^-6/1000</f>
+        <v>146.514909105155</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C200" s="6" t="n">
+        <v>50.567</v>
+      </c>
+      <c r="D200" s="6" t="n">
+        <v>0.119000000000001</v>
+      </c>
+      <c r="E200" s="1" t="n">
+        <f aca="false">E199</f>
+        <v>0.0243</v>
+      </c>
+      <c r="F200" s="1" t="n">
+        <f aca="false">F199</f>
+        <v>0.05</v>
+      </c>
+      <c r="G200" s="1" t="n">
+        <f aca="false">C200/1000/3600/(PI()*(E200^2)/4)</f>
+        <v>0.0302874185745092</v>
+      </c>
+      <c r="H200" s="1" t="n">
+        <f aca="false">D200*10^5/F200/G200^2*500*10^-6/1000</f>
+        <v>129.724630465869</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C201" s="6" t="n">
+        <v>61.23</v>
+      </c>
+      <c r="D201" s="6" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E201" s="1" t="n">
+        <f aca="false">E200</f>
+        <v>0.0243</v>
+      </c>
+      <c r="F201" s="1" t="n">
+        <f aca="false">F200</f>
+        <v>0.05</v>
+      </c>
+      <c r="G201" s="1" t="n">
+        <f aca="false">C201/1000/3600/(PI()*(E201^2)/4)</f>
+        <v>0.0366740886213775</v>
+      </c>
+      <c r="H201" s="1" t="n">
+        <f aca="false">D201*10^5/F201/G201^2*500*10^-6/1000</f>
+        <v>118.960100508065</v>
       </c>
     </row>
   </sheetData>

--- a/Codemig/Pressure Drop/Data_All.xlsx
+++ b/Codemig/Pressure Drop/Data_All.xlsx
@@ -10,6 +10,9 @@
   <sheets>
     <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Planilha1!$A$1:$A$201</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -20,12 +23,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="21">
   <si>
     <t xml:space="preserve">Nada</t>
   </si>
   <si>
     <t xml:space="preserve">3 Camadas – HC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alterie dp de 0.28 para 0.;35</t>
   </si>
   <si>
     <t xml:space="preserve">3 Camadas – CH</t>
@@ -120,12 +126,24 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -162,12 +180,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -179,7 +201,15 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -263,7 +293,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -319,519 +349,9 @@
               <c:f>Planilha1!$G$1:$G$171</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="171"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>0.0431248469825116</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0503123214795968</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0569008397685916</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0634893580575865</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0705270935026491</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0766663946355761</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0838538691326614</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0407290221501498</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0473175404391446</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0539060587281394</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0598956208090438</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.0664841390980387</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.0730726573870335</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.0796611756760283</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.0868486501731135</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.0119791241618088</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.0239582483236175</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.0359373724854263</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.0479164966472351</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.0598956208090438</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.0718747449708526</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.0119791241618088</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.0239582483236175</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.0359373724854263</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.0479164966472351</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.0598956208090438</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.0718747449708526</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.0119791241618088</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.0239582483236175</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.0359373724854263</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.0479164966472351</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.0598956208090438</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.0718747449708526</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.0119791241618088</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.0239582483236175</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.0359373724854263</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.0479164966472351</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.0598956208090438</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.0718747449708526</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.0119791241618088</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.0239582483236175</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.0359373724854263</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.0479164966472351</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.0598956208090438</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.0119791241618088</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.0239582483236175</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.0359373724854263</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.0479164966472351</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.0598956208090438</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.0204268522610242</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.0402560747221698</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.061023150689492</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.0809530972742128</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.101661977081247</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.122561113566146</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.141479342287401</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.0188958455826832</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.0378789854057981</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.0570904332423498</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.07598851713889</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.0961042437737604</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.116228923664059</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.134529377760721</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.0207133564347489</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.0406074899977539</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.0615491544459396</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.0819312404298191</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.101581397782387</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.121594161979825</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.142291850217573</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.019104008771405</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.037997616040231</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.058612486665262</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.0775777199775191</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.0962228744081934</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.115201537603594</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.13439284061543</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.0202670366516185</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.0404821444217494</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.0611082066160665</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.0810068168067862</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.101373234593665</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.121155452463809</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.142916339783738</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.0184352005908665</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.0375454766410717</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.0572918814895</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.0751491494424311</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.0952827825881595</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.112558088938212</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.135001661984595</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.0203395580205925</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.0403232241378865</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.0604881936776155</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.0810941110472179</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.101021819318081</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.121887381095121</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.0191801114425506</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.0381789194626661</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.0574888531089356</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.0770248564547851</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.096538476662062</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.117601010058537</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.0211386360676214</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0.0421228284790944</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0.0609873376677764</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>0.0832294624670094</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0.102953484176865</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0.124965062648804</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>0.0204268522610242</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>0.0403344157071726</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0.0585050476001153</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0.0801875939350423</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0.0994661911873107</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>0.120318323081207</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>0.0212460751327682</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>0.0411894516006321</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>0.0603449415907532</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>0.0810851577917886</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>0.101518724994384</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>0.121408381929675</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>0.14156887484169</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0.0197083535128554</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0.038357984571244</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0.0566785834926207</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0.0758228819134559</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0.0958222162277502</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>0.115174677837307</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>0.133882505055983</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>0.0201716844813007</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>0.0404508080277482</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>0.0605687729764756</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>0.080847896522923</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>0.101127020069371</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>0.121137545952951</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>0.141752416577982</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>0.0185466686209563</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>0.0380065692956598</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>0.0575470492692235</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>0.0762817362541865</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>0.0962922621377672</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>0.115765592695614</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>0.135574670332045</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>0.0201515396565857</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>0.040399326809032</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>0.0608597537779147</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>0.0808926628000678</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>0.100970338099365</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>0.12102563026009</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>0.140946623589382</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>0.018443706183524</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>0.0379327049383715</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>0.0574597550287917</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>0.0764719929320503</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>0.0960460476134723</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>0.115653677002753</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>0.136559528429223</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>0.0201560162843002</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>0.0403456072764587</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>0.0605687729764756</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>0.0806464482757729</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>0.101104636930799</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>0.121159929091523</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>0.142983489199455</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>0.0185310004239557</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>0.0379841861570876</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>0.0571889190520677</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>0.076393651947048</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>0.096113197029189</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>0.115608910725609</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>0.138417328930719</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -841,530 +361,20 @@
               <c:f>Planilha1!$H$1:$H$171</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="171"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>101.976476664102</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>96.5478739130874</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>91.6318651953698</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>70.3877792772312</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>83.0247511170878</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>82.0156765381588</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>79.2356209391018</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>124.034781607141</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>113.009018267745</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>104.873657988352</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>98.5481364686405</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>92.6140191013456</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>88.0383985358234</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>84.6183762355473</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>81.8490698515485</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>585.368237212603</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>318.816629196152</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>247.000618612198</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>212.979961307265</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>192.335277941285</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>179.443239383626</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>473.869525362583</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>290.941951233647</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>235.386169461154</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>205.575749973474</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>188.154076246909</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>175.958904638313</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>564.462228740724</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>317.074461823496</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>252.420694882685</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>214.722128679921</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>193.72901183941</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>180.411110146213</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>459.932186381331</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>292.684118606304</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>235.386169461154</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>206.882375502967</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>188.990316585785</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>177.120349553418</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>986.066732923611</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>557.493559250103</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>424.314542318133</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>359.75756245358</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>320.34973648409</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>822.302999893894</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>511.326123874704</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>402.634237236184</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>345.166910707582</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>308.015191485681</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>291.58737356904</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>151.183095466511</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>109.206709605121</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>87.9949825063582</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>76.9219040477444</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>68.7915417095911</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>63.6144891273115</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>322.081053372901</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>160.299128167724</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>115.566114326504</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>92.9412869908335</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>79.5796835300966</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>71.3096255485199</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>65.9367451274402</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>291.345997321043</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>149.588488181329</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>107.788059127285</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>86.6513067330896</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>75.1057752761006</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>67.8609277889709</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>62.1492151003825</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>315.100304349744</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>160.454111483311</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>110.612269405388</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>90.0032283761558</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>78.3035323966536</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>70.2011143649919</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>64.8711814526689</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>233.717228287976</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>112.887201936775</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>81.6771852260746</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>65.2737764040816</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>57.5745423481482</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>53.2519682799894</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>48.8778171088249</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>241.278218446439</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>117.049267458279</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>84.7967194572299</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>69.9437570147876</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>59.4791696088324</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>55.9093261561509</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>50.7532085089776</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>519.703255131501</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>258.308555438271</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>184.030109051519</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>146.486618267295</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>126.076945615318</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>113.642480191512</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>543.660453677613</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>270.987856620969</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>190.117813324571</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>151.417377315805</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>128.759820611864</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>114.123905352203</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>544.562437817307</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>257.373756371131</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>186.855314425433</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>145.562647086429</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>128.937873867116</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>117.185497259483</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>551.219966472981</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>266.360951427385</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>191.848451162185</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>148.78059016222</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>130.556793768092</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>118.813258340692</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>232.611870276595</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>120.831965938726</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>88.3332716802132</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>70.4710614801001</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>61.1291335486946</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>56.1963095603319</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>52.0580051493296</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>253.16290696275</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>128.001669127894</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>90.7922591452424</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>73.0547932202327</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>62.9862571534801</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>56.9158124181461</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>53.0000092898714</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>307.203161001088</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>149.730985052811</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>107.671197766888</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>84.9093532780564</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>74.804377838629</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>67.8055960620589</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>61.9595719241027</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>348.858590139927</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>162.686128289586</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>111.726348198012</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>88.504650222182</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>76.5729836852498</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>69.0212362152191</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>63.3824191673881</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>283.192256020673</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>142.964604978062</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>103.494245712149</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>83.5418965071998</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>73.7288857418122</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>66.7931837443948</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>62.6700437710167</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>338.06596504486</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>155.212224145233</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>109.037267778517</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>87.2098137884785</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>75.5207049992556</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>68.4072613753827</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>63.0971050484998</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>328.193016406076</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>168.942991582312</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>120.391845604326</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>96.3531913142756</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>84.4571382026357</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>76.5227599167995</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>70.7614450200334</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>388.276409225631</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>182.515681813476</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>126.889101152212</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>100.240061104535</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>86.6012059977135</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>77.8127422400619</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>70.9835932212551</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="53616216"/>
-        <c:axId val="57129778"/>
+        <c:axId val="44380012"/>
+        <c:axId val="84532989"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="53616216"/>
+        <c:axId val="44380012"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1392,12 +402,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57129778"/>
+        <c:crossAx val="84532989"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="57129778"/>
+        <c:axId val="84532989"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1434,7 +444,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53616216"/>
+        <c:crossAx val="44380012"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1487,15 +497,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>442440</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>141480</xdr:rowOff>
+      <xdr:colOff>442800</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>511920</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>128880</xdr:rowOff>
+      <xdr:colOff>511560</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>150120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1503,8 +513,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8297280" y="5668200"/>
-        <a:ext cx="5758920" cy="3238920"/>
+        <a:off x="9203040" y="162720"/>
+        <a:ext cx="5758560" cy="3238560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1519,32 +529,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:O201"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A149" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L162" activeCellId="0" sqref="L162"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A190" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C150" activeCellId="0" sqref="C150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="15.34"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="24.35"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="n">
+      <c r="C1" s="3" t="n">
         <v>72</v>
       </c>
-      <c r="D1" s="2" t="n">
+      <c r="D1" s="3" t="n">
         <v>0.189651</v>
       </c>
       <c r="E1" s="1" t="n">
@@ -1564,20 +576,20 @@
         <v>101.976476664102</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="3" t="n">
         <v>84</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="3" t="n">
         <v>0.2443945</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="4" t="n">
         <f aca="false">E1</f>
         <v>0.0243</v>
       </c>
@@ -1594,17 +606,17 @@
         <v>96.5478739130874</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="3" t="n">
         <v>95</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="3" t="n">
         <v>0.296677</v>
       </c>
       <c r="E3" s="1" t="n">
@@ -1624,47 +636,50 @@
         <v>91.6318651953698</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="6" t="n">
         <v>106</v>
       </c>
-      <c r="D4" s="2" t="n">
-        <v>0.283726</v>
-      </c>
-      <c r="E4" s="1" t="n">
+      <c r="D4" s="7" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E4" s="5" t="n">
         <f aca="false">E3</f>
         <v>0.0243</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" s="5" t="n">
         <f aca="false">F3</f>
         <v>0.05</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="5" t="n">
         <f aca="false">C4/1000/3600/(PI()*(E4^2)/4)</f>
         <v>0.0634893580575865</v>
       </c>
-      <c r="H4" s="1" t="n">
+      <c r="H4" s="5" t="n">
         <f aca="false">D4*10^5/F4/G4^2*500*10^-6/1000</f>
-        <v>70.3877792772312</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>86.829274536105</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="3" t="n">
         <v>117.75</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="3" t="n">
         <v>0.412971</v>
       </c>
       <c r="E5" s="1" t="n">
@@ -1684,17 +699,17 @@
         <v>83.0247511170878</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="3" t="n">
         <v>128</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="3" t="n">
         <v>0.4820665</v>
       </c>
       <c r="E6" s="1" t="n">
@@ -1714,17 +729,17 @@
         <v>82.0156765381588</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="3" t="n">
         <v>140</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="3" t="n">
         <v>0.557143</v>
       </c>
       <c r="E7" s="1" t="n">
@@ -1744,17 +759,17 @@
         <v>79.2356209391018</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3" t="n">
         <v>68</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="3" t="n">
         <v>0.2057555</v>
       </c>
       <c r="E8" s="1" t="n">
@@ -1774,17 +789,17 @@
         <v>124.034781607141</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3" t="n">
         <v>79</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="3" t="n">
         <v>0.2530215</v>
       </c>
       <c r="E9" s="1" t="n">
@@ -1804,17 +819,17 @@
         <v>113.009018267745</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="3" t="n">
         <v>0.3047485</v>
       </c>
       <c r="E10" s="1" t="n">
@@ -1834,17 +849,17 @@
         <v>104.873657988352</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="3" t="n">
         <v>0.35354</v>
       </c>
       <c r="E11" s="1" t="n">
@@ -1864,17 +879,17 @@
         <v>98.5481364686405</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3" t="n">
         <v>111</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="3" t="n">
         <v>0.409367</v>
       </c>
       <c r="E12" s="1" t="n">
@@ -1894,17 +909,17 @@
         <v>92.6140191013456</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" s="3" t="n">
         <v>122</v>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" s="3" t="n">
         <v>0.470091</v>
       </c>
       <c r="E13" s="1" t="n">
@@ -1924,17 +939,17 @@
         <v>88.0383985358234</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" s="3" t="n">
         <v>133</v>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" s="3" t="n">
         <v>0.53698</v>
       </c>
       <c r="E14" s="1" t="n">
@@ -1954,17 +969,17 @@
         <v>84.6183762355473</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" s="3" t="n">
         <v>145</v>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" s="3" t="n">
         <v>0.617362</v>
       </c>
       <c r="E15" s="1" t="n">
@@ -1984,17 +999,17 @@
         <v>81.8490698515485</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="2" t="n">
+      <c r="B16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="D16" s="3" t="n">
         <v>0.084</v>
       </c>
       <c r="E16" s="1" t="n">
@@ -2013,17 +1028,17 @@
         <v>585.368237212603</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="2" t="n">
+      <c r="B17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="D17" s="2" t="n">
+      <c r="D17" s="3" t="n">
         <v>0.183</v>
       </c>
       <c r="E17" s="1" t="n">
@@ -2047,17 +1062,17 @@
         <v>266.666666666667</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="2" t="n">
+      <c r="B18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="D18" s="2" t="n">
+      <c r="D18" s="3" t="n">
         <v>0.319</v>
       </c>
       <c r="E18" s="1" t="n">
@@ -2077,17 +1092,17 @@
         <v>247.000618612198</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="2" t="n">
+      <c r="B19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="3" t="n">
         <v>80</v>
       </c>
-      <c r="D19" s="2" t="n">
+      <c r="D19" s="3" t="n">
         <v>0.489</v>
       </c>
       <c r="E19" s="1" t="n">
@@ -2107,17 +1122,17 @@
         <v>212.979961307265</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="2" t="n">
+      <c r="B20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="D20" s="2" t="n">
+      <c r="D20" s="3" t="n">
         <v>0.69</v>
       </c>
       <c r="E20" s="1" t="n">
@@ -2137,17 +1152,17 @@
         <v>192.335277941285</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="2" t="n">
+      <c r="B21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="D21" s="2" t="n">
+      <c r="D21" s="3" t="n">
         <v>0.927</v>
       </c>
       <c r="E21" s="1" t="n">
@@ -2167,17 +1182,17 @@
         <v>179.443239383626</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="D22" s="2" t="n">
+      <c r="D22" s="3" t="n">
         <v>0.068</v>
       </c>
       <c r="E22" s="1" t="n">
@@ -2197,17 +1212,17 @@
         <v>473.869525362583</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="D23" s="2" t="n">
+      <c r="D23" s="3" t="n">
         <v>0.167</v>
       </c>
       <c r="E23" s="1" t="n">
@@ -2227,17 +1242,17 @@
         <v>290.941951233647</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="D24" s="2" t="n">
+      <c r="D24" s="3" t="n">
         <v>0.304</v>
       </c>
       <c r="E24" s="1" t="n">
@@ -2257,17 +1272,17 @@
         <v>235.386169461154</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="3" t="n">
         <v>80</v>
       </c>
-      <c r="D25" s="2" t="n">
+      <c r="D25" s="3" t="n">
         <v>0.472</v>
       </c>
       <c r="E25" s="1" t="n">
@@ -2287,17 +1302,17 @@
         <v>205.575749973474</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="D26" s="2" t="n">
+      <c r="D26" s="3" t="n">
         <v>0.675</v>
       </c>
       <c r="E26" s="1" t="n">
@@ -2317,17 +1332,17 @@
         <v>188.154076246909</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="D27" s="2" t="n">
+      <c r="D27" s="3" t="n">
         <v>0.909</v>
       </c>
       <c r="E27" s="1" t="n">
@@ -2347,17 +1362,17 @@
         <v>175.958904638313</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="4" t="n">
+      <c r="B28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="D28" s="4" t="n">
+      <c r="D28" s="2" t="n">
         <v>0.081</v>
       </c>
       <c r="E28" s="1" t="n">
@@ -2377,17 +1392,17 @@
         <v>564.462228740724</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="4" t="n">
+      <c r="B29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="D29" s="4" t="n">
+      <c r="D29" s="2" t="n">
         <v>0.182</v>
       </c>
       <c r="E29" s="1" t="n">
@@ -2407,17 +1422,17 @@
         <v>317.074461823496</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="4" t="n">
+      <c r="B30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="D30" s="4" t="n">
+      <c r="D30" s="2" t="n">
         <v>0.326</v>
       </c>
       <c r="E30" s="1" t="n">
@@ -2437,17 +1452,17 @@
         <v>252.420694882685</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="4" t="n">
+      <c r="B31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="D31" s="4" t="n">
+      <c r="D31" s="2" t="n">
         <v>0.493</v>
       </c>
       <c r="E31" s="1" t="n">
@@ -2467,17 +1482,17 @@
         <v>214.722128679921</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="4" t="n">
+      <c r="B32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="D32" s="4" t="n">
+      <c r="D32" s="2" t="n">
         <v>0.695</v>
       </c>
       <c r="E32" s="1" t="n">
@@ -2497,17 +1512,17 @@
         <v>193.72901183941</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="4" t="n">
+      <c r="B33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="D33" s="4" t="n">
+      <c r="D33" s="2" t="n">
         <v>0.932</v>
       </c>
       <c r="E33" s="1" t="n">
@@ -2527,17 +1542,17 @@
         <v>180.411110146213</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="D34" s="4" t="n">
+      <c r="D34" s="2" t="n">
         <v>0.066</v>
       </c>
       <c r="E34" s="1" t="n">
@@ -2557,17 +1572,17 @@
         <v>459.932186381331</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="D35" s="4" t="n">
+      <c r="D35" s="2" t="n">
         <v>0.168</v>
       </c>
       <c r="E35" s="1" t="n">
@@ -2587,17 +1602,17 @@
         <v>292.684118606304</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="D36" s="4" t="n">
+      <c r="D36" s="2" t="n">
         <v>0.304</v>
       </c>
       <c r="E36" s="1" t="n">
@@ -2617,17 +1632,17 @@
         <v>235.386169461154</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="D37" s="4" t="n">
+      <c r="D37" s="2" t="n">
         <v>0.475</v>
       </c>
       <c r="E37" s="1" t="n">
@@ -2647,17 +1662,17 @@
         <v>206.882375502967</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="D38" s="4" t="n">
+      <c r="D38" s="2" t="n">
         <v>0.678</v>
       </c>
       <c r="E38" s="1" t="n">
@@ -2677,17 +1692,17 @@
         <v>188.990316585785</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="D39" s="4" t="n">
+      <c r="D39" s="2" t="n">
         <v>0.915</v>
       </c>
       <c r="E39" s="1" t="n">
@@ -2707,12 +1722,12 @@
         <v>177.120349553418</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C40" s="1" t="n">
         <v>20</v>
@@ -2737,12 +1752,12 @@
         <v>986.066732923611</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C41" s="1" t="n">
         <v>40</v>
@@ -2767,12 +1782,12 @@
         <v>557.493559250103</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C42" s="1" t="n">
         <v>60</v>
@@ -2797,12 +1812,12 @@
         <v>424.314542318133</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C43" s="1" t="n">
         <v>80</v>
@@ -2827,12 +1842,12 @@
         <v>359.75756245358</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C44" s="1" t="n">
         <v>100</v>
@@ -2857,12 +1872,12 @@
         <v>320.34973648409</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>5</v>
       </c>
       <c r="C45" s="1" t="n">
         <v>20</v>
@@ -2887,12 +1902,12 @@
         <v>822.302999893894</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>5</v>
       </c>
       <c r="C46" s="1" t="n">
         <v>40</v>
@@ -2917,12 +1932,12 @@
         <v>511.326123874704</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>5</v>
       </c>
       <c r="C47" s="1" t="n">
         <v>60</v>
@@ -2947,12 +1962,12 @@
         <v>402.634237236184</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>5</v>
       </c>
       <c r="C48" s="1" t="n">
         <v>80</v>
@@ -2977,12 +1992,12 @@
         <v>345.166910707582</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>5</v>
       </c>
       <c r="C49" s="1" t="n">
         <v>100</v>
@@ -3007,17 +2022,17 @@
         <v>308.015191485681</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C50" s="8" t="n">
         <v>30.42</v>
       </c>
-      <c r="D50" s="5" t="n">
+      <c r="D50" s="8" t="n">
         <v>0.243333333333333</v>
       </c>
       <c r="E50" s="1" t="n">
@@ -3035,17 +2050,17 @@
         <v>291.587373569042</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C51" s="8" t="n">
         <v>59.95</v>
       </c>
-      <c r="D51" s="5" t="n">
+      <c r="D51" s="8" t="n">
         <v>0.49</v>
       </c>
       <c r="E51" s="1" t="n">
@@ -3065,17 +2080,17 @@
         <v>151.183095466511</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C52" s="8" t="n">
         <v>90.8766666666667</v>
       </c>
-      <c r="D52" s="5" t="n">
+      <c r="D52" s="8" t="n">
         <v>0.813333333333333</v>
       </c>
       <c r="E52" s="1" t="n">
@@ -3095,17 +2110,17 @@
         <v>109.206709605121</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C53" s="8" t="n">
         <v>120.556666666667</v>
       </c>
-      <c r="D53" s="5" t="n">
+      <c r="D53" s="8" t="n">
         <v>1.15333333333333</v>
       </c>
       <c r="E53" s="1" t="n">
@@ -3125,17 +2140,17 @@
         <v>87.9949825063582</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C54" s="8" t="n">
         <v>151.396666666667</v>
       </c>
-      <c r="D54" s="5" t="n">
+      <c r="D54" s="8" t="n">
         <v>1.59</v>
       </c>
       <c r="E54" s="1" t="n">
@@ -3155,17 +2170,17 @@
         <v>76.9219040477448</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C55" s="8" t="n">
         <v>182.52</v>
       </c>
-      <c r="D55" s="5" t="n">
+      <c r="D55" s="8" t="n">
         <v>2.06666666666667</v>
       </c>
       <c r="E55" s="1" t="n">
@@ -3185,17 +2200,17 @@
         <v>68.7915417095906</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C56" s="8" t="n">
         <v>210.693333333333</v>
       </c>
-      <c r="D56" s="5" t="n">
+      <c r="D56" s="8" t="n">
         <v>2.54666666666667</v>
       </c>
       <c r="E56" s="1" t="n">
@@ -3215,17 +2230,17 @@
         <v>63.6144891273112</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C57" s="8" t="n">
         <v>28.14</v>
       </c>
-      <c r="D57" s="5" t="n">
+      <c r="D57" s="8" t="n">
         <v>0.23</v>
       </c>
       <c r="E57" s="1" t="n">
@@ -3245,17 +2260,17 @@
         <v>322.0810533729</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C58" s="8" t="n">
         <v>56.41</v>
       </c>
-      <c r="D58" s="5" t="n">
+      <c r="D58" s="8" t="n">
         <v>0.46</v>
       </c>
       <c r="E58" s="1" t="n">
@@ -3275,17 +2290,17 @@
         <v>160.299128167723</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C59" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C59" s="8" t="n">
         <v>85.02</v>
       </c>
-      <c r="D59" s="5" t="n">
+      <c r="D59" s="8" t="n">
         <v>0.753333333333334</v>
       </c>
       <c r="E59" s="1" t="n">
@@ -3305,17 +2320,17 @@
         <v>115.566114326505</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C60" s="8" t="n">
         <v>113.163333333333</v>
       </c>
-      <c r="D60" s="5" t="n">
+      <c r="D60" s="8" t="n">
         <v>1.07333333333333</v>
       </c>
       <c r="E60" s="1" t="n">
@@ -3335,17 +2350,17 @@
         <v>92.9412869908335</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C61" s="8" t="n">
         <v>143.12</v>
       </c>
-      <c r="D61" s="5" t="n">
+      <c r="D61" s="8" t="n">
         <v>1.47</v>
       </c>
       <c r="E61" s="1" t="n">
@@ -3365,17 +2380,17 @@
         <v>79.5796835300966</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C62" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C62" s="8" t="n">
         <v>173.09</v>
       </c>
-      <c r="D62" s="5" t="n">
+      <c r="D62" s="8" t="n">
         <v>1.92666666666667</v>
       </c>
       <c r="E62" s="1" t="n">
@@ -3395,17 +2410,17 @@
         <v>71.3096255485204</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C63" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C63" s="8" t="n">
         <v>200.343333333333</v>
       </c>
-      <c r="D63" s="5" t="n">
+      <c r="D63" s="8" t="n">
         <v>2.38666666666667</v>
       </c>
       <c r="E63" s="1" t="n">
@@ -3425,12 +2440,12 @@
         <v>65.93674512744</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" s="1" t="n">
         <v>30.8466666666667</v>
@@ -3455,12 +2470,12 @@
         <v>291.345997321044</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" s="1" t="n">
         <v>60.4733333333333</v>
@@ -3485,12 +2500,12 @@
         <v>149.588488181329</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" s="1" t="n">
         <v>91.66</v>
@@ -3515,12 +2530,12 @@
         <v>107.788059127284</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" s="1" t="n">
         <v>122.013333333333</v>
@@ -3545,12 +2560,12 @@
         <v>86.6513067330896</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" s="1" t="n">
         <v>151.276666666667</v>
@@ -3575,12 +2590,12 @@
         <v>75.1057752761009</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" s="1" t="n">
         <v>181.08</v>
@@ -3605,12 +2620,12 @@
         <v>67.8609277889707</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" s="1" t="n">
         <v>211.903333333333</v>
@@ -3635,12 +2650,12 @@
         <v>62.1492151003824</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C71" s="1" t="n">
         <v>28.45</v>
@@ -3665,12 +2680,12 @@
         <v>315.100304349744</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C72" s="1" t="n">
         <v>56.5866666666667</v>
@@ -3695,12 +2710,12 @@
         <v>160.454111483311</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C73" s="1" t="n">
         <v>87.2866666666667</v>
@@ -3725,12 +2740,12 @@
         <v>110.612269405388</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C74" s="1" t="n">
         <v>115.53</v>
@@ -3755,12 +2770,12 @@
         <v>90.0032283761559</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C75" s="1" t="n">
         <v>143.296666666667</v>
@@ -3785,12 +2800,12 @@
         <v>78.3035323966536</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C76" s="1" t="n">
         <v>171.56</v>
@@ -3815,12 +2830,12 @@
         <v>70.2011143649915</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C77" s="1" t="n">
         <v>200.14</v>
@@ -3845,12 +2860,12 @@
         <v>64.8711814526692</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" s="1" t="n">
         <v>30.182</v>
@@ -3875,12 +2890,12 @@
         <v>233.717228287976</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" s="1" t="n">
         <v>60.2866666666667</v>
@@ -3905,12 +2920,12 @@
         <v>112.887201936775</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" s="1" t="n">
         <v>91.0033333333333</v>
@@ -3935,12 +2950,12 @@
         <v>81.6771852260746</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" s="1" t="n">
         <v>120.636666666667</v>
@@ -3965,12 +2980,12 @@
         <v>65.2737764040815</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" s="1" t="n">
         <v>150.966666666667</v>
@@ -3995,12 +3010,12 @@
         <v>57.5745423481486</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" s="1" t="n">
         <v>180.426666666667</v>
@@ -4025,12 +3040,12 @@
         <v>53.2519682799895</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" s="1" t="n">
         <v>212.833333333333</v>
@@ -4055,12 +3070,12 @@
         <v>48.8778171088251</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C85" s="1" t="n">
         <v>27.454</v>
@@ -4085,12 +3100,12 @@
         <v>241.278218446439</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C86" s="1" t="n">
         <v>55.9133333333333</v>
@@ -4115,12 +3130,12 @@
         <v>117.049267458279</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C87" s="1" t="n">
         <v>85.32</v>
@@ -4145,12 +3160,12 @@
         <v>84.7967194572298</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C88" s="1" t="n">
         <v>111.913333333333</v>
@@ -4175,12 +3190,12 @@
         <v>69.9437570147876</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C89" s="1" t="n">
         <v>141.896666666667</v>
@@ -4205,12 +3220,12 @@
         <v>59.4791696088323</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C90" s="1" t="n">
         <v>167.623333333333</v>
@@ -4235,12 +3250,12 @@
         <v>55.909326156151</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C91" s="1" t="n">
         <v>201.046666666667</v>
@@ -4265,12 +3280,12 @@
         <v>50.753208508978</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" s="1" t="n">
         <v>30.29</v>
@@ -4295,12 +3310,12 @@
         <v>519.703255131502</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" s="1" t="n">
         <v>60.05</v>
@@ -4325,12 +3340,12 @@
         <v>258.308555438271</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" s="1" t="n">
         <v>90.08</v>
@@ -4355,12 +3370,12 @@
         <v>184.030109051519</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" s="1" t="n">
         <v>120.766666666667</v>
@@ -4385,12 +3400,12 @@
         <v>146.486618267295</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" s="1" t="n">
         <v>150.443333333333</v>
@@ -4415,12 +3430,12 @@
         <v>126.076945615317</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" s="1" t="n">
         <v>181.516666666667</v>
@@ -4445,12 +3460,12 @@
         <v>113.642480191512</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C98" s="1" t="n">
         <v>28.5633333333333</v>
@@ -4475,12 +3490,12 @@
         <v>543.660453677612</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C99" s="1" t="n">
         <v>56.8566666666667</v>
@@ -4505,12 +3520,12 @@
         <v>270.987856620969</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C100" s="1" t="n">
         <v>85.6133333333333</v>
@@ -4535,12 +3550,12 @@
         <v>190.117813324571</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C101" s="1" t="n">
         <v>114.706666666667</v>
@@ -4565,12 +3580,12 @@
         <v>151.417377315805</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C102" s="1" t="n">
         <v>143.766666666667</v>
@@ -4595,12 +3610,12 @@
         <v>128.759820611864</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C103" s="1" t="n">
         <v>175.133333333333</v>
@@ -4625,12 +3640,12 @@
         <v>114.123905352204</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" s="1" t="n">
         <v>31.48</v>
@@ -4655,12 +3670,12 @@
         <v>544.562437817308</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" s="1" t="n">
         <v>62.73</v>
@@ -4685,12 +3700,12 @@
         <v>257.37375637113</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" s="1" t="n">
         <v>90.8233333333333</v>
@@ -4715,12 +3730,12 @@
         <v>186.855314425433</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" s="1" t="n">
         <v>123.946666666667</v>
@@ -4745,12 +3760,12 @@
         <v>145.562647086429</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" s="1" t="n">
         <v>153.32</v>
@@ -4775,12 +3790,12 @@
         <v>128.937873867116</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" s="1" t="n">
         <v>186.1</v>
@@ -4805,12 +3820,12 @@
         <v>117.185497259483</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C110" s="1" t="n">
         <v>30.42</v>
@@ -4835,12 +3850,12 @@
         <v>551.219966472984</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C111" s="1" t="n">
         <v>60.0666666666667</v>
@@ -4865,12 +3880,12 @@
         <v>266.360951427385</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C112" s="1" t="n">
         <v>87.1266666666667</v>
@@ -4895,12 +3910,12 @@
         <v>191.848451162185</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C113" s="1" t="n">
         <v>119.416666666667</v>
@@ -4925,12 +3940,12 @@
         <v>148.78059016222</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C114" s="1" t="n">
         <v>148.126666666667</v>
@@ -4955,12 +3970,12 @@
         <v>130.556793768092</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C115" s="1" t="n">
         <v>179.18</v>
@@ -4985,12 +4000,12 @@
         <v>118.813258340693</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" s="1" t="n">
         <v>31.64</v>
@@ -5015,12 +4030,12 @@
         <v>232.611870276594</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" s="1" t="n">
         <v>61.34</v>
@@ -5045,12 +4060,12 @@
         <v>120.831965938726</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" s="1" t="n">
         <v>89.8666666666667</v>
@@ -5075,12 +4090,12 @@
         <v>88.3332716802132</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" s="1" t="n">
         <v>120.753333333333</v>
@@ -5105,12 +4120,12 @@
         <v>70.4710614801001</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" s="1" t="n">
         <v>151.183333333333</v>
@@ -5135,12 +4150,12 @@
         <v>61.1291335486952</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" s="1" t="n">
         <v>180.803333333333</v>
@@ -5165,12 +4180,12 @@
         <v>56.1963095603319</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" s="1" t="n">
         <v>210.826666666667</v>
@@ -5195,12 +4210,12 @@
         <v>52.0580051493296</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C123" s="1" t="n">
         <v>29.35</v>
@@ -5225,12 +4240,12 @@
         <v>253.16290696275</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C124" s="1" t="n">
         <v>57.1233333333333</v>
@@ -5255,12 +4270,12 @@
         <v>128.001669127893</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C125" s="1" t="n">
         <v>84.4066666666667</v>
@@ -5285,12 +4300,12 @@
         <v>90.7922591452423</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C126" s="1" t="n">
         <v>112.916666666667</v>
@@ -5315,12 +4330,12 @@
         <v>73.0547932202327</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C127" s="1" t="n">
         <v>142.7</v>
@@ -5345,12 +4360,12 @@
         <v>62.98625715348</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C128" s="1" t="n">
         <v>171.52</v>
@@ -5375,12 +4390,12 @@
         <v>56.9158124181461</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C129" s="1" t="n">
         <v>199.38</v>
@@ -5405,12 +4420,12 @@
         <v>53.0000092898717</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" s="1" t="n">
         <v>30.04</v>
@@ -5435,12 +4450,12 @@
         <v>307.203161001089</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" s="1" t="n">
         <v>60.24</v>
@@ -5465,12 +4480,12 @@
         <v>149.730985052811</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" s="1" t="n">
         <v>90.2</v>
@@ -5495,12 +4510,12 @@
         <v>107.671197766887</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" s="1" t="n">
         <v>120.4</v>
@@ -5525,12 +4540,12 @@
         <v>84.9093532780565</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" s="1" t="n">
         <v>150.6</v>
@@ -5555,12 +4570,12 @@
         <v>74.8043778386283</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" s="1" t="n">
         <v>180.4</v>
@@ -5585,12 +4600,12 @@
         <v>67.8055960620591</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" s="1" t="n">
         <v>211.1</v>
@@ -5615,12 +4630,12 @@
         <v>61.9595719241029</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C137" s="1" t="n">
         <v>27.62</v>
@@ -5645,12 +4660,12 @@
         <v>348.858590139926</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C138" s="1" t="n">
         <v>56.6</v>
@@ -5675,12 +4690,12 @@
         <v>162.686128289586</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C139" s="1" t="n">
         <v>85.7</v>
@@ -5705,12 +4720,12 @@
         <v>111.726348198012</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C140" s="1" t="n">
         <v>113.6</v>
@@ -5735,12 +4750,12 @@
         <v>88.5046502221821</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C141" s="1" t="n">
         <v>143.4</v>
@@ -5765,12 +4780,12 @@
         <v>76.5729836852497</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C142" s="1" t="n">
         <v>172.4</v>
@@ -5795,12 +4810,12 @@
         <v>69.0212362152192</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C143" s="1" t="n">
         <v>201.9</v>
@@ -5825,12 +4840,12 @@
         <v>63.3824191673877</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" s="1" t="n">
         <v>30.01</v>
@@ -5855,12 +4870,12 @@
         <v>283.192256020674</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" s="1" t="n">
         <v>60.1633333333333</v>
@@ -5885,12 +4900,12 @@
         <v>142.964604978062</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" s="1" t="n">
         <v>90.6333333333333</v>
@@ -5915,12 +4930,12 @@
         <v>103.494245712149</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" s="1" t="n">
         <v>120.466666666667</v>
@@ -5945,12 +4960,12 @@
         <v>83.5418965071998</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" s="1" t="n">
         <v>150.366666666667</v>
@@ -5975,12 +4990,12 @@
         <v>73.7288857418123</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" s="1" t="n">
         <v>180.233333333333</v>
@@ -6005,12 +5020,12 @@
         <v>66.7931837443945</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" s="1" t="n">
         <v>209.9</v>
@@ -6035,12 +5050,12 @@
         <v>62.6700437710164</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C151" s="1" t="n">
         <v>27.4666666666667</v>
@@ -6065,12 +5080,12 @@
         <v>338.06596504486</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C152" s="1" t="n">
         <v>56.49</v>
@@ -6095,12 +5110,12 @@
         <v>155.212224145233</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C153" s="1" t="n">
         <v>85.57</v>
@@ -6125,12 +5140,12 @@
         <v>109.037267778517</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C154" s="1" t="n">
         <v>113.883333333333</v>
@@ -6155,12 +5170,12 @@
         <v>87.2098137884786</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C155" s="1" t="n">
         <v>143.033333333333</v>
@@ -6185,12 +5200,12 @@
         <v>75.5207049992556</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C156" s="1" t="n">
         <v>172.233333333333</v>
@@ -6215,12 +5230,12 @@
         <v>68.4072613753823</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C157" s="1" t="n">
         <v>203.366666666667</v>
@@ -6245,12 +5260,12 @@
         <v>63.0971050485</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" s="1" t="n">
         <v>30.0166666666667</v>
@@ -6275,12 +5290,12 @@
         <v>328.193016406076</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" s="1" t="n">
         <v>60.0833333333333</v>
@@ -6305,12 +5320,12 @@
         <v>168.942991582312</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" s="1" t="n">
         <v>90.2</v>
@@ -6335,12 +5350,12 @@
         <v>120.391845604326</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" s="1" t="n">
         <v>120.1</v>
@@ -6365,12 +5380,12 @@
         <v>96.3531913142756</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" s="1" t="n">
         <v>150.566666666667</v>
@@ -6395,12 +5410,12 @@
         <v>84.4571382026349</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" s="1" t="n">
         <v>180.433333333333</v>
@@ -6425,12 +5440,12 @@
         <v>76.5227599167997</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" s="1" t="n">
         <v>212.933333333333</v>
@@ -6455,12 +5470,12 @@
         <v>70.7614450200334</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C165" s="1" t="n">
         <v>27.5966666666667</v>
@@ -6485,12 +5500,12 @@
         <v>388.276409225632</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C166" s="1" t="n">
         <v>56.5666666666667</v>
@@ -6515,12 +5530,12 @@
         <v>182.515681813476</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C167" s="1" t="n">
         <v>85.1666666666667</v>
@@ -6545,12 +5560,12 @@
         <v>126.889101152212</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C168" s="1" t="n">
         <v>113.766666666667</v>
@@ -6575,12 +5590,12 @@
         <v>100.240061104534</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C169" s="1" t="n">
         <v>143.133333333333</v>
@@ -6605,12 +5620,12 @@
         <v>86.6012059977136</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C170" s="1" t="n">
         <v>172.166666666667</v>
@@ -6635,12 +5650,12 @@
         <v>77.8127422400614</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C171" s="1" t="n">
         <v>206.133333333333</v>
@@ -6665,17 +5680,17 @@
         <v>70.9835932212546</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C172" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C172" s="9" t="n">
         <v>10.291</v>
       </c>
-      <c r="D172" s="6" t="n">
+      <c r="D172" s="9" t="n">
         <v>0.0510000000000002</v>
       </c>
       <c r="E172" s="1" t="n">
@@ -6690,20 +5705,20 @@
       </c>
       <c r="H172" s="1" t="n">
         <f aca="false">D172*10^5/F172/G172^2*500*10^-6/1000</f>
-        <v>1342.34725289221</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1342.34725289222</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C173" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C173" s="9" t="n">
         <v>20.273</v>
       </c>
-      <c r="D173" s="6" t="n">
+      <c r="D173" s="9" t="n">
         <v>0.0690000000000008</v>
       </c>
       <c r="E173" s="1" t="n">
@@ -6720,20 +5735,20 @@
       </c>
       <c r="H173" s="1" t="n">
         <f aca="false">D173*10^5/F173/G173^2*500*10^-6/1000</f>
-        <v>467.975275508563</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>467.97527550856</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C174" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C174" s="9" t="n">
         <v>30.217</v>
       </c>
-      <c r="D174" s="6" t="n">
+      <c r="D174" s="9" t="n">
         <v>0.0899999999999999</v>
       </c>
       <c r="E174" s="1" t="n">
@@ -6750,20 +5765,20 @@
       </c>
       <c r="H174" s="1" t="n">
         <f aca="false">D174*10^5/F174/G174^2*500*10^-6/1000</f>
-        <v>274.757577712392</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>274.757577712391</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C175" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C175" s="9" t="n">
         <v>40.052</v>
       </c>
-      <c r="D175" s="6" t="n">
+      <c r="D175" s="9" t="n">
         <v>0.112</v>
       </c>
       <c r="E175" s="1" t="n">
@@ -6780,20 +5795,20 @@
       </c>
       <c r="H175" s="1" t="n">
         <f aca="false">D175*10^5/F175/G175^2*500*10^-6/1000</f>
-        <v>194.616414158982</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>194.616414158983</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C176" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C176" s="9" t="n">
         <v>50.65</v>
       </c>
-      <c r="D176" s="6" t="n">
+      <c r="D176" s="9" t="n">
         <v>0.139</v>
       </c>
       <c r="E176" s="1" t="n">
@@ -6813,17 +5828,17 @@
         <v>151.030882312298</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C177" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C177" s="9" t="n">
         <v>60.991</v>
       </c>
-      <c r="D177" s="6" t="n">
+      <c r="D177" s="9" t="n">
         <v>0.172000000000001</v>
       </c>
       <c r="E177" s="1" t="n">
@@ -6843,17 +5858,17 @@
         <v>128.886312197283</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C178" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C178" s="9" t="n">
         <v>70.58</v>
       </c>
-      <c r="D178" s="6" t="n">
+      <c r="D178" s="9" t="n">
         <v>0.207000000000001</v>
       </c>
       <c r="E178" s="1" t="n">
@@ -6873,17 +5888,17 @@
         <v>115.828890425022</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C179" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C179" s="9" t="n">
         <v>80.904</v>
       </c>
-      <c r="D179" s="6" t="n">
+      <c r="D179" s="9" t="n">
         <v>0.245</v>
       </c>
       <c r="E179" s="1" t="n">
@@ -6903,17 +5918,17 @@
         <v>104.336425637615</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C180" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C180" s="9" t="n">
         <v>91.963</v>
       </c>
-      <c r="D180" s="6" t="n">
+      <c r="D180" s="9" t="n">
         <v>0.289000000000001</v>
       </c>
       <c r="E180" s="1" t="n">
@@ -6930,20 +5945,20 @@
       </c>
       <c r="H180" s="1" t="n">
         <f aca="false">D180*10^5/F180/G180^2*500*10^-6/1000</f>
-        <v>95.2536093202338</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>95.2536093202339</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C181" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C181" s="9" t="n">
         <v>10.321</v>
       </c>
-      <c r="D181" s="6" t="n">
+      <c r="D181" s="9" t="n">
         <v>0.0140000000000002</v>
       </c>
       <c r="E181" s="1" t="n">
@@ -6963,17 +5978,17 @@
         <v>366.348432988387</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C182" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C182" s="9" t="n">
         <v>20.053</v>
       </c>
-      <c r="D182" s="6" t="n">
+      <c r="D182" s="9" t="n">
         <v>0.032</v>
       </c>
       <c r="E182" s="1" t="n">
@@ -6990,20 +6005,20 @@
       </c>
       <c r="H182" s="1" t="n">
         <f aca="false">D182*10^5/F182/G182^2*500*10^-6/1000</f>
-        <v>221.820218807872</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>221.820218807871</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C183" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C183" s="9" t="n">
         <v>30.551</v>
       </c>
-      <c r="D183" s="6" t="n">
+      <c r="D183" s="9" t="n">
         <v>0.0540000000000003</v>
       </c>
       <c r="E183" s="1" t="n">
@@ -7020,20 +6035,20 @@
       </c>
       <c r="H183" s="1" t="n">
         <f aca="false">D183*10^5/F183/G183^2*500*10^-6/1000</f>
-        <v>161.269692578818</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>161.269692578817</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C184" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C184" s="9" t="n">
         <v>40.3</v>
       </c>
-      <c r="D184" s="6" t="n">
+      <c r="D184" s="9" t="n">
         <v>0.0789999999999997</v>
       </c>
       <c r="E184" s="1" t="n">
@@ -7050,20 +6065,20 @@
       </c>
       <c r="H184" s="1" t="n">
         <f aca="false">D184*10^5/F184/G184^2*500*10^-6/1000</f>
-        <v>135.589749277312</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>135.589749277311</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C185" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C185" s="9" t="n">
         <v>50.707</v>
       </c>
-      <c r="D185" s="6" t="n">
+      <c r="D185" s="9" t="n">
         <v>0.109</v>
       </c>
       <c r="E185" s="1" t="n">
@@ -7080,20 +6095,20 @@
       </c>
       <c r="H185" s="1" t="n">
         <f aca="false">D185*10^5/F185/G185^2*500*10^-6/1000</f>
-        <v>118.168173473359</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>118.168173473358</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C186" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C186" s="9" t="n">
         <v>61.033</v>
       </c>
-      <c r="D186" s="6" t="n">
+      <c r="D186" s="9" t="n">
         <v>0.146000000000001</v>
       </c>
       <c r="E186" s="1" t="n">
@@ -7113,17 +6128,17 @@
         <v>109.252976831862</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C187" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C187" s="9" t="n">
         <v>70.867</v>
       </c>
-      <c r="D187" s="6" t="n">
+      <c r="D187" s="9" t="n">
         <v>0.186</v>
       </c>
       <c r="E187" s="1" t="n">
@@ -7143,17 +6158,17 @@
         <v>103.236840889338</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C188" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C188" s="9" t="n">
         <v>81.285</v>
       </c>
-      <c r="D188" s="6" t="n">
+      <c r="D188" s="9" t="n">
         <v>0.23</v>
       </c>
       <c r="E188" s="1" t="n">
@@ -7170,20 +6185,20 @@
       </c>
       <c r="H188" s="1" t="n">
         <f aca="false">D188*10^5/F188/G188^2*500*10^-6/1000</f>
-        <v>97.0324226074237</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97.0324226074234</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C189" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C189" s="9" t="n">
         <v>92.255</v>
       </c>
-      <c r="D189" s="6" t="n">
+      <c r="D189" s="9" t="n">
         <v>0.28</v>
       </c>
       <c r="E189" s="1" t="n">
@@ -7200,20 +6215,20 @@
       </c>
       <c r="H189" s="1" t="n">
         <f aca="false">D189*10^5/F189/G189^2*500*10^-6/1000</f>
-        <v>91.7039544374175</v>
+        <v>91.7039544374173</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C190" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C190" s="9" t="n">
         <v>10.33</v>
       </c>
-      <c r="D190" s="6" t="n">
+      <c r="D190" s="9" t="n">
         <v>0.0510000000000002</v>
       </c>
       <c r="E190" s="1" t="n">
@@ -7235,15 +6250,15 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C191" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C191" s="9" t="n">
         <v>20.583</v>
       </c>
-      <c r="D191" s="6" t="n">
+      <c r="D191" s="9" t="n">
         <v>0.0700000000000003</v>
       </c>
       <c r="E191" s="1" t="n">
@@ -7260,20 +6275,20 @@
       </c>
       <c r="H191" s="1" t="n">
         <f aca="false">D191*10^5/F191/G191^2*500*10^-6/1000</f>
-        <v>460.564596280523</v>
+        <v>460.564596280522</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C192" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C192" s="9" t="n">
         <v>30.794</v>
       </c>
-      <c r="D192" s="6" t="n">
+      <c r="D192" s="9" t="n">
         <v>0.0900000000000007</v>
       </c>
       <c r="E192" s="1" t="n">
@@ -7290,20 +6305,20 @@
       </c>
       <c r="H192" s="1" t="n">
         <f aca="false">D192*10^5/F192/G192^2*500*10^-6/1000</f>
-        <v>264.557548288416</v>
+        <v>264.557548288415</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C193" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C193" s="9" t="n">
         <v>40.541</v>
       </c>
-      <c r="D193" s="6" t="n">
+      <c r="D193" s="9" t="n">
         <v>0.114</v>
       </c>
       <c r="E193" s="1" t="n">
@@ -7320,20 +6335,20 @@
       </c>
       <c r="H193" s="1" t="n">
         <f aca="false">D193*10^5/F193/G193^2*500*10^-6/1000</f>
-        <v>193.341817156036</v>
+        <v>193.341817156035</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C194" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C194" s="9" t="n">
         <v>50.583</v>
       </c>
-      <c r="D194" s="6" t="n">
+      <c r="D194" s="9" t="n">
         <v>0.143000000000001</v>
       </c>
       <c r="E194" s="1" t="n">
@@ -7350,20 +6365,20 @@
       </c>
       <c r="H194" s="1" t="n">
         <f aca="false">D194*10^5/F194/G194^2*500*10^-6/1000</f>
-        <v>155.788978580965</v>
+        <v>155.788978580966</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C195" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C195" s="9" t="n">
         <v>61.315</v>
       </c>
-      <c r="D195" s="6" t="n">
+      <c r="D195" s="9" t="n">
         <v>0.177000000000001</v>
       </c>
       <c r="E195" s="1" t="n">
@@ -7385,15 +6400,15 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C196" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C196" s="9" t="n">
         <v>10.297</v>
       </c>
-      <c r="D196" s="6" t="n">
+      <c r="D196" s="9" t="n">
         <v>0.0140000000000002</v>
       </c>
       <c r="E196" s="1" t="n">
@@ -7415,15 +6430,15 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C197" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C197" s="9" t="n">
         <v>20.637</v>
       </c>
-      <c r="D197" s="6" t="n">
+      <c r="D197" s="9" t="n">
         <v>0.0339999999999998</v>
       </c>
       <c r="E197" s="1" t="n">
@@ -7440,20 +6455,20 @@
       </c>
       <c r="H197" s="1" t="n">
         <f aca="false">D197*10^5/F197/G197^2*500*10^-6/1000</f>
-        <v>222.533627491358</v>
+        <v>222.533627491357</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C198" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C198" s="9" t="n">
         <v>31.04</v>
       </c>
-      <c r="D198" s="6" t="n">
+      <c r="D198" s="9" t="n">
         <v>0.0590000000000002</v>
       </c>
       <c r="E198" s="1" t="n">
@@ -7475,15 +6490,15 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C199" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C199" s="9" t="n">
         <v>40.684</v>
       </c>
-      <c r="D199" s="6" t="n">
+      <c r="D199" s="9" t="n">
         <v>0.0870000000000006</v>
       </c>
       <c r="E199" s="1" t="n">
@@ -7500,20 +6515,20 @@
       </c>
       <c r="H199" s="1" t="n">
         <f aca="false">D199*10^5/F199/G199^2*500*10^-6/1000</f>
-        <v>146.514909105155</v>
+        <v>146.514909105154</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C200" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C200" s="9" t="n">
         <v>50.567</v>
       </c>
-      <c r="D200" s="6" t="n">
+      <c r="D200" s="9" t="n">
         <v>0.119000000000001</v>
       </c>
       <c r="E200" s="1" t="n">
@@ -7530,20 +6545,20 @@
       </c>
       <c r="H200" s="1" t="n">
         <f aca="false">D200*10^5/F200/G200^2*500*10^-6/1000</f>
-        <v>129.724630465869</v>
+        <v>129.72463046587</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C201" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C201" s="9" t="n">
         <v>61.23</v>
       </c>
-      <c r="D201" s="6" t="n">
+      <c r="D201" s="9" t="n">
         <v>0.16</v>
       </c>
       <c r="E201" s="1" t="n">
@@ -7564,6 +6579,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A201">
+    <filterColumn colId="0">
+      <customFilters and="true">
+        <customFilter operator="equal" val="3Camadas_12K"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
